--- a/template.xlsx
+++ b/template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t xml:space="preserve">Singles</t>
   </si>
@@ -32,6 +32,21 @@
   </si>
   <si>
     <t xml:space="preserve">Charts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Difficulty Histogram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">138 Is Great</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3guys1pack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7guys1pack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-Panel Through the Ages</t>
   </si>
 </sst>
 </file>
@@ -118,7 +133,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -135,12 +150,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -160,15 +179,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:AG7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.2"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="6" style="1" width="5.06"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="24" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -193,7 +215,9 @@
       <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="G2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -201,7 +225,7 @@
         <v>333</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>15287</v>
+        <v>14858</v>
       </c>
       <c r="C3" s="5" t="n">
         <v>48891</v>
@@ -211,12 +235,249 @@
       </c>
       <c r="E3" s="5" t="n">
         <v>36961</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="6" t="n">
+        <v>33</v>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>169</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>33</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>169</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>0.545454545454545</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>0.454545454545454</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>0.727272727272727</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>0.545454545454545</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>0.409090909090909</v>
+      </c>
+      <c r="M5" s="1" t="n">
+        <v>0.863636363636364</v>
+      </c>
+      <c r="N5" s="1" t="n">
+        <v>0.636363636363636</v>
+      </c>
+      <c r="O5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1" t="n">
+        <v>0.681818181818182</v>
+      </c>
+      <c r="Q5" s="1" t="n">
+        <v>0.318181818181818</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="6" t="n">
+        <v>83</v>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>404</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>83</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>404</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.482142857142857</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>0.535714285714286</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>0.428571428571429</v>
+      </c>
+      <c r="L6" s="1" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="M6" s="1" t="n">
+        <v>0.446428571428571</v>
+      </c>
+      <c r="N6" s="1" t="n">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="O6" s="1" t="n">
+        <v>0.678571428571429</v>
+      </c>
+      <c r="P6" s="1" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="Q6" s="1" t="n">
+        <v>0.357142857142857</v>
+      </c>
+      <c r="R6" s="1" t="n">
+        <v>0.178571428571429</v>
+      </c>
+      <c r="S6" s="1" t="n">
+        <v>0.089285714285714</v>
+      </c>
+      <c r="U6" s="1" t="n">
+        <v>0.017857142857143</v>
+      </c>
+      <c r="V6" s="1" t="n">
+        <v>0.017857142857143</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="6" t="n">
+        <v>50</v>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>80</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="O7" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P7" s="1" t="n">
+        <v>0.466666666666667</v>
+      </c>
+      <c r="Q7" s="1" t="n">
+        <v>0.733333333333333</v>
+      </c>
+      <c r="R7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" s="1" t="n">
+        <v>0.733333333333333</v>
+      </c>
+      <c r="T7" s="1" t="n">
+        <v>0.866666666666667</v>
+      </c>
+      <c r="U7" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="V7" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="W7" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X7" s="1" t="n">
+        <v>0.066666666666667</v>
+      </c>
+      <c r="Y7" s="1" t="n">
+        <v>0.066666666666667</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D1:E1"/>
   </mergeCells>
+  <conditionalFormatting sqref="F4:W1048576">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF2E7D32"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
